--- a/vaadin-spreadsheet/src/test/resources/test_sheets/merged_borders.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/merged_borders.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -425,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
